--- a/실무_엑셀_예제_파일/Chapter08/08-001.xlsx
+++ b/실무_엑셀_예제_파일/Chapter08/08-001.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info\Google Drive\@ 오빠두 실무엑셀 - 출판\@ 예제파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter08\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345EFA08-F523-4493-95BA-0B89367F74CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F7AABB-656B-433E-8844-4F2CCBCE84AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7440" yWindow="1260" windowWidth="18012" windowHeight="13788" xr2:uid="{67D57D5C-B8FB-41C2-AC7F-F47EF8577173}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{67D57D5C-B8FB-41C2-AC7F-F47EF8577173}"/>
   </bookViews>
   <sheets>
     <sheet name="중요함수투표" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>MIN 함수</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -113,6 +104,10 @@
   </si>
   <si>
     <t>엑셀 중요함수 투표 현황</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>비율</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -211,7 +206,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -236,6 +231,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -252,6 +250,1327 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>중요함수투표!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>투표수(명)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-21C1-435D-A81D-ED28F051DF9E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-21C1-435D-A81D-ED28F051DF9E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-21C1-435D-A81D-ED28F051DF9E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="002060"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ko-KR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-21C1-435D-A81D-ED28F051DF9E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="002060"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ko-KR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-21C1-435D-A81D-ED28F051DF9E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="002060"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ko-KR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-21C1-435D-A81D-ED28F051DF9E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>중요함수투표!$B$5:$C$11</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>VLOOKUP 함수</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>SUMIF 함수</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>COUNTIF 함수</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>IF 함수</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>LEN 함수</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>MATCH 함수</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>IFERROR 함수</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>필수</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>중요</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>중요함수투표!$D$5:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>482913</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>347697</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>302496</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>223847</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>183555</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>146844</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>123349</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-21C1-435D-A81D-ED28F051DF9E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2054020127"/>
+        <c:axId val="2054009567"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2054020127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2054009567"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2054009567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2054020127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>163635</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>20516</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>17096</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>23446</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F026395B-1F4E-4778-5F3D-FBF0C5BD90DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>268654</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>327270</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>185616</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="직사각형 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC5B5A3A-EFC3-4FED-C28D-B3FF0D5D2A9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4899269" y="551962"/>
+          <a:ext cx="1817077" cy="366346"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>액셀 중요함수 투표</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> 현황</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>175846</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>180731</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>68385</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="말풍선: 사각형 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E4B6FC6-E53F-FCCF-4FEB-6DC07A3B5842}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6828692" y="913423"/>
+          <a:ext cx="1240693" cy="581269"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -47126"/>
+            <a:gd name="adj2" fmla="val 82668"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>상위 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>개 함수</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>점유율 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>50% </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>이상</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.03045</cdr:x>
+      <cdr:y>0.07265</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.42254</cdr:x>
+      <cdr:y>0.71724</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3634D9A4-9D94-E166-BCD1-73E4A656449A}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="139212" y="199292"/>
+          <a:ext cx="1792654" cy="1768231"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="ko-KR" altLang="en-US" kern="1200"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -551,29 +1870,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D7EBAC-567A-4172-B1D0-B217E1FEF667}">
-  <dimension ref="B1:D47"/>
+  <dimension ref="B1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.796875" style="2"/>
-    <col min="3" max="3" width="20.3984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.59765625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="1"/>
+    <col min="2" max="2" width="8.83203125" style="2"/>
+    <col min="3" max="3" width="20.4140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.58203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:5" ht="28.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="2:4" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:4" s="2" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:5" s="2" customFormat="1" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="6" t="s">
         <v>18</v>
       </c>
@@ -583,8 +1904,11 @@
       <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E4" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
@@ -594,41 +1918,48 @@
       <c r="D5" s="5">
         <v>482913</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="E5" s="8">
+        <f>D5 / SUM($D$5:$D$17)</f>
+        <v>0.2197073407756111</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="5">
         <v>347697</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="E6" s="8">
+        <f t="shared" ref="E6:E17" si="0">D6 / SUM($D$5:$D$17)</f>
+        <v>0.15818912157191389</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="5">
         <v>302496</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.1376243583321618</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="5">
         <v>223847</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>0.10184200696729684</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
@@ -638,63 +1969,72 @@
       <c r="D9" s="5">
         <v>183555</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>8.3510654995966757E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="5">
         <v>146844</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="0"/>
+        <v>6.6808523996773408E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="5">
         <v>123349</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="E11" s="8">
+        <f t="shared" si="0"/>
+        <v>5.6119178355792561E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="5">
         <v>90045</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="E12" s="8">
+        <f t="shared" si="0"/>
+        <v>4.0967104841120247E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C13" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="5">
         <v>79240</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="E13" s="8">
+        <f t="shared" si="0"/>
+        <v>3.6051234245214815E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C14" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="5">
         <v>68939</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E14" s="8">
+        <f t="shared" si="0"/>
+        <v>3.1364664785851391E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
@@ -704,8 +2044,12 @@
       <c r="D15" s="5">
         <v>56530</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E15" s="8">
+        <f t="shared" si="0"/>
+        <v>2.571903422364959E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
@@ -715,8 +2059,12 @@
       <c r="D16" s="5">
         <v>49746</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E16" s="8">
+        <f t="shared" si="0"/>
+        <v>2.2632568131782639E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
@@ -726,124 +2074,128 @@
       <c r="D17" s="5">
         <v>42782</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E17" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9464208776864972E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C18" s="4"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="2:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:5" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C19" s="4"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="2:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:5" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C20" s="4"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="2:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:5" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C21" s="4"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="2:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:5" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C22" s="4"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="2:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:5" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C23" s="4"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="2:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:5" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C24" s="4"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="2:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:5" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C25" s="4"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="2:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:5" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C26" s="4"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="2:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:5" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C27" s="4"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="2:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:5" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C28" s="4"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="2:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:5" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C29" s="4"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="2:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:5" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C30" s="4"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="2:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:5" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C31" s="4"/>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="2:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:5" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C32" s="4"/>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="3:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:4" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C33" s="4"/>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="3:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:4" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C34" s="4"/>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="3:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:4" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C35" s="4"/>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="3:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:4" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C36" s="4"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="3:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:4" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C37" s="4"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="3:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:4" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C38" s="4"/>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="3:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="3:4" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C39" s="4"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="3:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="3:4" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C40" s="4"/>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="3:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="3:4" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C41" s="4"/>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="3:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="3:4" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C42" s="4"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="3:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="3:4" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C43" s="4"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="3:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="3:4" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C44" s="4"/>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="3:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="3:4" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C45" s="4"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="3:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="3:4" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C46" s="4"/>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="3:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="3:4" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C47" s="4"/>
       <c r="D47" s="3"/>
     </row>
@@ -852,7 +2204,39 @@
     <mergeCell ref="B2:D2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="D5:D17">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0E419349-9CE1-4383-910C-C8C2A83BDC06}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0E419349-9CE1-4383-910C-C8C2A83BDC06}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D5:D17</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>